--- a/CHANTIERS_ITB77/22344 -- Clichy La Garenne/22344 -- Clichy La Garenne.xlsx
+++ b/CHANTIERS_ITB77/22344 -- Clichy La Garenne/22344 -- Clichy La Garenne.xlsx
@@ -519,7 +519,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pieux / Micropieu</t>
+          <t>Dalle</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Semelle</t>
+          <t>Longrine</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -564,7 +564,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Longrine</t>
+          <t>Pieux / Micropieu</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -579,7 +579,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Voile</t>
+          <t>Poteau</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Poteau</t>
+          <t>Poutre</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Poutre</t>
+          <t>Semelle</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dalle</t>
+          <t>Voile</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Voile</t>
+          <t>Acrotère</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -654,7 +654,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Poteau</t>
+          <t>Dalle</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Poutre</t>
+          <t>Poteau</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dalle</t>
+          <t>Poutre</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Acrotère</t>
+          <t>Voile</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
